--- a/result5.xlsx
+++ b/result5.xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="160">
   <si>
     <t>Dataset</t>
   </si>
@@ -462,6 +461,69 @@
   <si>
     <t xml:space="preserve">      Obs: These experiments ran on my PC</t>
   </si>
+  <si>
+    <t>1, 532, 106400</t>
+  </si>
+  <si>
+    <t>7.221018478441866e-06, 0.0038415818305310725, 0.7683163661062146</t>
+  </si>
+  <si>
+    <t>1, 532, 102984</t>
+  </si>
+  <si>
+    <t>8.147617225268661e-06, 0.004334532363842928, 0.8390742123270678</t>
+  </si>
+  <si>
+    <t>1, 48, 710</t>
+  </si>
+  <si>
+    <t>0.0028572244921283465, 0.13714677562216063, 2.028629389411126</t>
+  </si>
+  <si>
+    <t>1, 48, 702</t>
+  </si>
+  <si>
+    <t>0.002905118819359712, 0.13944570332926615, 2.0393934111905176</t>
+  </si>
+  <si>
+    <t>1, 23, 205</t>
+  </si>
+  <si>
+    <t>0.051203277009728626, 1.1776753712237584, 10.496671786994368</t>
+  </si>
+  <si>
+    <t>1, 23, 180</t>
+  </si>
+  <si>
+    <t>0.0831255195344971, 1.9118869492934332, 14.962593516209477</t>
+  </si>
+  <si>
+    <t>1, 9, 30</t>
+  </si>
+  <si>
+    <t>0.5235602094240838, 4.712041884816754, 15.706806282722512</t>
+  </si>
+  <si>
+    <t>1, 8, 26</t>
+  </si>
+  <si>
+    <t>0.6097560975609756, 4.878048780487805, 15.853658536585366</t>
+  </si>
+  <si>
+    <t>1, 3, 9</t>
+  </si>
+  <si>
+    <t>5.0, 15.0, 45.0</t>
+  </si>
+  <si>
+    <t>1, 3, 6</t>
+  </si>
+  <si>
+    <t>10.0, 30.0, 60.0</t>
+  </si>
+  <si>
+    <t>16.666666666666664, 33.33333333333333, 66.66666666666666</t>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +537,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000000000000000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +675,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2066,53 +2136,17 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,17 +2163,53 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="44" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="44" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2870,11 +2940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368853808"/>
-        <c:axId val="368854352"/>
+        <c:axId val="-1484195408"/>
+        <c:axId val="-1484203024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368853808"/>
+        <c:axId val="-1484195408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +3042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368854352"/>
+        <c:crossAx val="-1484203024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368854352"/>
+        <c:axId val="-1484203024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,7 +3156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368853808"/>
+        <c:crossAx val="-1484195408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3213,6 +3283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3838,11 +3909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368856528"/>
-        <c:axId val="368850000"/>
+        <c:axId val="-1484208464"/>
+        <c:axId val="-1484207376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368856528"/>
+        <c:axId val="-1484208464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,6 +3945,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3940,7 +4012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368850000"/>
+        <c:crossAx val="-1484207376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +4020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368850000"/>
+        <c:axId val="-1484207376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,6 +4066,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4054,7 +4127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368856528"/>
+        <c:crossAx val="-1484208464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4806,11 +4879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368859248"/>
-        <c:axId val="368861424"/>
+        <c:axId val="-1484206832"/>
+        <c:axId val="-1484205200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368859248"/>
+        <c:axId val="-1484206832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368861424"/>
+        <c:crossAx val="-1484205200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4916,7 +4989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368861424"/>
+        <c:axId val="-1484205200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5022,7 +5095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368859248"/>
+        <c:crossAx val="-1484206832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5774,11 +5847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="352918240"/>
-        <c:axId val="352917152"/>
+        <c:axId val="-1484202480"/>
+        <c:axId val="-1479932800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="352918240"/>
+        <c:axId val="-1484202480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +5949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352917152"/>
+        <c:crossAx val="-1479932800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5884,7 +5957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352917152"/>
+        <c:axId val="-1479932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5990,7 +6063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352918240"/>
+        <c:crossAx val="-1484202480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6742,11 +6815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="352914432"/>
-        <c:axId val="352927488"/>
+        <c:axId val="-1479934976"/>
+        <c:axId val="-1479942592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="352914432"/>
+        <c:axId val="-1479934976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,7 +6917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352927488"/>
+        <c:crossAx val="-1479942592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6852,7 +6925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352927488"/>
+        <c:axId val="-1479942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6958,7 +7031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352914432"/>
+        <c:crossAx val="-1479934976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7710,11 +7783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="352925312"/>
-        <c:axId val="352925856"/>
+        <c:axId val="-1479932256"/>
+        <c:axId val="-1479931712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="352925312"/>
+        <c:axId val="-1479932256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352925856"/>
+        <c:crossAx val="-1479931712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7820,7 +7893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352925856"/>
+        <c:axId val="-1479931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7926,7 +7999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352925312"/>
+        <c:crossAx val="-1479932256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11759,8 +11832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AH141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11805,83 +11878,83 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="3:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="171" t="s">
+    <row r="4" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="160" t="s">
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="162"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="172"/>
     </row>
-    <row r="5" spans="3:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="158" t="s">
+    <row r="5" spans="3:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="166" t="s">
+      <c r="D5" s="174"/>
+      <c r="E5" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168" t="s">
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="165"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="178"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="182"/>
     </row>
     <row r="6" spans="3:34" s="36" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="32" t="s">
@@ -16931,10 +17004,10 @@
         <f>SUM(AC82:AE82)</f>
         <v>7</v>
       </c>
-      <c r="AG82" s="179" t="s">
+      <c r="AG82" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="AH82" s="180" t="s">
+      <c r="AH82" s="159" t="s">
         <v>112</v>
       </c>
     </row>
@@ -17033,10 +17106,10 @@
         <f t="shared" ref="AF83:AF86" si="25">SUM(AC83:AE83)</f>
         <v>3</v>
       </c>
-      <c r="AG83" s="179" t="s">
+      <c r="AG83" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="AH83" s="180" t="s">
+      <c r="AH83" s="159" t="s">
         <v>114</v>
       </c>
     </row>
@@ -17135,10 +17208,10 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AG84" s="179" t="s">
+      <c r="AG84" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="AH84" s="180" t="s">
+      <c r="AH84" s="159" t="s">
         <v>116</v>
       </c>
     </row>
@@ -17237,10 +17310,10 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AG85" s="179" t="s">
+      <c r="AG85" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="AH85" s="180" t="s">
+      <c r="AH85" s="159" t="s">
         <v>116</v>
       </c>
     </row>
@@ -17339,10 +17412,10 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AG86" s="179" t="s">
+      <c r="AG86" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="AH86" s="180" t="s">
+      <c r="AH86" s="159" t="s">
         <v>116</v>
       </c>
     </row>
@@ -17426,7 +17499,7 @@
       <c r="AA87" s="110">
         <v>22</v>
       </c>
-      <c r="AB87" s="181">
+      <c r="AB87" s="160">
         <v>1.50132179260253</v>
       </c>
       <c r="AC87" s="43">
@@ -17445,7 +17518,7 @@
       <c r="AG87" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AH87" s="182" t="s">
+      <c r="AH87" s="161" t="s">
         <v>118</v>
       </c>
     </row>
@@ -17529,7 +17602,7 @@
       <c r="AA88" s="110">
         <v>22</v>
       </c>
-      <c r="AB88" s="181">
+      <c r="AB88" s="160">
         <v>5.0201416015625</v>
       </c>
       <c r="AC88" s="43">
@@ -17548,7 +17621,7 @@
       <c r="AG88" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AH88" s="182" t="s">
+      <c r="AH88" s="161" t="s">
         <v>120</v>
       </c>
     </row>
@@ -17632,7 +17705,7 @@
       <c r="AA89" s="110">
         <v>22</v>
       </c>
-      <c r="AB89" s="181">
+      <c r="AB89" s="160">
         <v>181.21099472045799</v>
       </c>
       <c r="AC89" s="43">
@@ -17651,7 +17724,7 @@
       <c r="AG89" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AH89" s="182" t="s">
+      <c r="AH89" s="161" t="s">
         <v>122</v>
       </c>
     </row>
@@ -17735,7 +17808,7 @@
       <c r="AA90" s="110">
         <v>22</v>
       </c>
-      <c r="AB90" s="181">
+      <c r="AB90" s="160">
         <v>172.67632484436001</v>
       </c>
       <c r="AC90" s="43">
@@ -17754,7 +17827,7 @@
       <c r="AG90" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AH90" s="182" t="s">
+      <c r="AH90" s="161" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17838,7 +17911,7 @@
       <c r="AA91" s="110">
         <v>22</v>
       </c>
-      <c r="AB91" s="181">
+      <c r="AB91" s="160">
         <v>917.87958145141602</v>
       </c>
       <c r="AC91" s="43">
@@ -17857,7 +17930,7 @@
       <c r="AG91" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AH91" s="182" t="s">
+      <c r="AH91" s="161" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18181,7 +18254,7 @@
       <c r="AA97" s="110">
         <v>9</v>
       </c>
-      <c r="AB97" s="181">
+      <c r="AB97" s="160">
         <v>0</v>
       </c>
       <c r="AC97" s="43">
@@ -18200,7 +18273,7 @@
       <c r="AG97" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AH97" s="182" t="s">
+      <c r="AH97" s="161" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18284,7 +18357,7 @@
       <c r="AA98" s="110">
         <v>9</v>
       </c>
-      <c r="AB98" s="181">
+      <c r="AB98" s="160">
         <v>0.51522254943847601</v>
       </c>
       <c r="AC98" s="43">
@@ -18303,7 +18376,7 @@
       <c r="AG98" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AH98" s="182" t="s">
+      <c r="AH98" s="161" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18387,7 +18460,7 @@
       <c r="AA99" s="110">
         <v>9</v>
       </c>
-      <c r="AB99" s="181">
+      <c r="AB99" s="160">
         <v>1.5125274658203101</v>
       </c>
       <c r="AC99" s="43">
@@ -18406,7 +18479,7 @@
       <c r="AG99" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AH99" s="182" t="s">
+      <c r="AH99" s="161" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18490,7 +18563,7 @@
       <c r="AA100" s="110">
         <v>9</v>
       </c>
-      <c r="AB100" s="181">
+      <c r="AB100" s="160">
         <v>1.0015964508056601</v>
       </c>
       <c r="AC100" s="43">
@@ -18509,7 +18582,7 @@
       <c r="AG100" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AH100" s="182" t="s">
+      <c r="AH100" s="161" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18593,7 +18666,7 @@
       <c r="AA101" s="110">
         <v>9</v>
       </c>
-      <c r="AB101" s="181">
+      <c r="AB101" s="160">
         <v>2.5138854980468701</v>
       </c>
       <c r="AC101" s="43">
@@ -18612,7 +18685,7 @@
       <c r="AG101" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AH101" s="182" t="s">
+      <c r="AH101" s="161" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18936,7 +19009,7 @@
       <c r="AA107" s="110">
         <v>14</v>
       </c>
-      <c r="AB107" s="181">
+      <c r="AB107" s="160">
         <v>0</v>
       </c>
       <c r="AC107" s="43">
@@ -18955,7 +19028,7 @@
       <c r="AG107" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AH107" s="182" t="s">
+      <c r="AH107" s="161" t="s">
         <v>131</v>
       </c>
     </row>
@@ -19039,7 +19112,7 @@
       <c r="AA108" s="110">
         <v>14</v>
       </c>
-      <c r="AB108" s="181">
+      <c r="AB108" s="160">
         <v>0</v>
       </c>
       <c r="AC108" s="43">
@@ -19058,7 +19131,7 @@
       <c r="AG108" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AH108" s="182" t="s">
+      <c r="AH108" s="161" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19142,7 +19215,7 @@
       <c r="AA109" s="110">
         <v>14</v>
       </c>
-      <c r="AB109" s="181">
+      <c r="AB109" s="160">
         <v>3.4961700439453098</v>
       </c>
       <c r="AC109" s="43">
@@ -19161,7 +19234,7 @@
       <c r="AG109" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="AH109" s="182" t="s">
+      <c r="AH109" s="161" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19245,7 +19318,7 @@
       <c r="AA110" s="110">
         <v>14</v>
       </c>
-      <c r="AB110" s="181">
+      <c r="AB110" s="160">
         <v>3.5030841827392498</v>
       </c>
       <c r="AC110" s="43">
@@ -19264,7 +19337,7 @@
       <c r="AG110" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AH110" s="182" t="s">
+      <c r="AH110" s="161" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19348,7 +19421,7 @@
       <c r="AA111" s="110">
         <v>14</v>
       </c>
-      <c r="AB111" s="181">
+      <c r="AB111" s="160">
         <v>32.030820846557603</v>
       </c>
       <c r="AC111" s="43">
@@ -19367,7 +19440,7 @@
       <c r="AG111" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="AH111" s="182" t="s">
+      <c r="AH111" s="161" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19393,31 +19466,86 @@
       <c r="I112" s="133">
         <v>945074</v>
       </c>
-      <c r="J112" s="106"/>
-      <c r="K112" s="113"/>
-      <c r="L112" s="113"/>
-      <c r="M112" s="113"/>
-      <c r="N112" s="113"/>
-      <c r="O112" s="113"/>
-      <c r="P112" s="113"/>
-      <c r="Q112" s="113"/>
-      <c r="R112" s="113"/>
-      <c r="S112" s="113"/>
-      <c r="T112" s="101"/>
-      <c r="U112" s="101"/>
-      <c r="V112" s="101"/>
-      <c r="W112" s="102"/>
-      <c r="X112" s="103"/>
-      <c r="Y112" s="100"/>
-      <c r="Z112" s="100"/>
-      <c r="AA112" s="100"/>
-      <c r="AB112" s="114"/>
-      <c r="AC112" s="113"/>
-      <c r="AD112" s="113"/>
-      <c r="AE112" s="113"/>
-      <c r="AF112" s="113"/>
-      <c r="AG112" s="113"/>
-      <c r="AH112" s="115"/>
+      <c r="J112" s="157">
+        <v>55</v>
+      </c>
+      <c r="K112" s="142">
+        <v>65</v>
+      </c>
+      <c r="L112" s="142">
+        <v>75</v>
+      </c>
+      <c r="M112" s="150">
+        <f>F112*(J112/100)</f>
+        <v>550000</v>
+      </c>
+      <c r="N112" s="150">
+        <f>F112*(K112/100)</f>
+        <v>650000</v>
+      </c>
+      <c r="O112" s="150">
+        <f>F112*(L112/100)</f>
+        <v>750000</v>
+      </c>
+      <c r="P112" s="101">
+        <v>1034</v>
+      </c>
+      <c r="Q112" s="101">
+        <v>429</v>
+      </c>
+      <c r="R112" s="101">
+        <v>128</v>
+      </c>
+      <c r="S112" s="101">
+        <f>SUM(P112:R112)</f>
+        <v>1591</v>
+      </c>
+      <c r="T112" s="101">
+        <v>19</v>
+      </c>
+      <c r="U112" s="101">
+        <v>16</v>
+      </c>
+      <c r="V112" s="101">
+        <v>13</v>
+      </c>
+      <c r="W112" s="102">
+        <v>19</v>
+      </c>
+      <c r="X112" s="103">
+        <v>19</v>
+      </c>
+      <c r="Y112" s="100">
+        <v>16</v>
+      </c>
+      <c r="Z112" s="100">
+        <v>13</v>
+      </c>
+      <c r="AA112" s="100">
+        <v>19</v>
+      </c>
+      <c r="AB112" s="151">
+        <v>11.5129947662353</v>
+      </c>
+      <c r="AC112" s="101">
+        <v>1034</v>
+      </c>
+      <c r="AD112" s="101">
+        <v>228228</v>
+      </c>
+      <c r="AE112" s="101">
+        <v>13619200</v>
+      </c>
+      <c r="AF112" s="101">
+        <f>SUM(AC112:AE112)</f>
+        <v>13848462</v>
+      </c>
+      <c r="AG112" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH112" s="133" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="113" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="90">
@@ -19441,31 +19569,86 @@
       <c r="I113" s="133">
         <v>945074</v>
       </c>
-      <c r="J113" s="106"/>
-      <c r="K113" s="113"/>
-      <c r="L113" s="113"/>
-      <c r="M113" s="113"/>
-      <c r="N113" s="113"/>
-      <c r="O113" s="113"/>
-      <c r="P113" s="113"/>
-      <c r="Q113" s="113"/>
-      <c r="R113" s="113"/>
-      <c r="S113" s="113"/>
-      <c r="T113" s="101"/>
-      <c r="U113" s="101"/>
-      <c r="V113" s="101"/>
-      <c r="W113" s="102"/>
-      <c r="X113" s="103"/>
-      <c r="Y113" s="100"/>
-      <c r="Z113" s="100"/>
-      <c r="AA113" s="100"/>
-      <c r="AB113" s="114"/>
-      <c r="AC113" s="113"/>
-      <c r="AD113" s="113"/>
-      <c r="AE113" s="113"/>
-      <c r="AF113" s="113"/>
-      <c r="AG113" s="113"/>
-      <c r="AH113" s="115"/>
+      <c r="J113" s="157">
+        <v>55</v>
+      </c>
+      <c r="K113" s="142">
+        <v>65</v>
+      </c>
+      <c r="L113" s="142">
+        <v>75</v>
+      </c>
+      <c r="M113" s="150">
+        <f t="shared" ref="M113:M121" si="41">F113*(J113/100)</f>
+        <v>550000</v>
+      </c>
+      <c r="N113" s="150">
+        <f t="shared" ref="N113:N121" si="42">F113*(K113/100)</f>
+        <v>650000</v>
+      </c>
+      <c r="O113" s="150">
+        <f t="shared" ref="O113:O121" si="43">F113*(L113/100)</f>
+        <v>750000</v>
+      </c>
+      <c r="P113" s="101">
+        <v>1034</v>
+      </c>
+      <c r="Q113" s="101">
+        <v>429</v>
+      </c>
+      <c r="R113" s="101">
+        <v>128</v>
+      </c>
+      <c r="S113" s="101">
+        <f t="shared" ref="S113:S116" si="44">SUM(P113:R113)</f>
+        <v>1591</v>
+      </c>
+      <c r="T113" s="101">
+        <v>19</v>
+      </c>
+      <c r="U113" s="101">
+        <v>16</v>
+      </c>
+      <c r="V113" s="101">
+        <v>13</v>
+      </c>
+      <c r="W113" s="102">
+        <v>19</v>
+      </c>
+      <c r="X113" s="103">
+        <v>19</v>
+      </c>
+      <c r="Y113" s="100">
+        <v>16</v>
+      </c>
+      <c r="Z113" s="100">
+        <v>13</v>
+      </c>
+      <c r="AA113" s="100">
+        <v>19</v>
+      </c>
+      <c r="AB113" s="151">
+        <v>274.26862716674799</v>
+      </c>
+      <c r="AC113" s="101">
+        <v>1034</v>
+      </c>
+      <c r="AD113" s="101">
+        <v>219269</v>
+      </c>
+      <c r="AE113" s="101">
+        <v>12053224</v>
+      </c>
+      <c r="AF113" s="101">
+        <f t="shared" ref="AF113:AF116" si="45">SUM(AC113:AE113)</f>
+        <v>12273527</v>
+      </c>
+      <c r="AG113" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH113" s="133" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="114" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="90">
@@ -19489,31 +19672,86 @@
       <c r="I114" s="133">
         <v>945074</v>
       </c>
-      <c r="J114" s="106"/>
-      <c r="K114" s="113"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="113"/>
-      <c r="N114" s="113"/>
-      <c r="O114" s="113"/>
-      <c r="P114" s="113"/>
-      <c r="Q114" s="113"/>
-      <c r="R114" s="113"/>
-      <c r="S114" s="113"/>
-      <c r="T114" s="101"/>
-      <c r="U114" s="101"/>
-      <c r="V114" s="101"/>
-      <c r="W114" s="102"/>
-      <c r="X114" s="103"/>
-      <c r="Y114" s="100"/>
-      <c r="Z114" s="100"/>
-      <c r="AA114" s="100"/>
-      <c r="AB114" s="114"/>
-      <c r="AC114" s="113"/>
-      <c r="AD114" s="113"/>
-      <c r="AE114" s="113"/>
-      <c r="AF114" s="113"/>
-      <c r="AG114" s="113"/>
-      <c r="AH114" s="115"/>
+      <c r="J114" s="157">
+        <v>55</v>
+      </c>
+      <c r="K114" s="142">
+        <v>65</v>
+      </c>
+      <c r="L114" s="142">
+        <v>75</v>
+      </c>
+      <c r="M114" s="150">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N114" s="150">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O114" s="150">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P114" s="101">
+        <v>1034</v>
+      </c>
+      <c r="Q114" s="101">
+        <v>429</v>
+      </c>
+      <c r="R114" s="101">
+        <v>128</v>
+      </c>
+      <c r="S114" s="101">
+        <f t="shared" si="44"/>
+        <v>1591</v>
+      </c>
+      <c r="T114" s="101">
+        <v>19</v>
+      </c>
+      <c r="U114" s="101">
+        <v>16</v>
+      </c>
+      <c r="V114" s="101">
+        <v>13</v>
+      </c>
+      <c r="W114" s="102">
+        <v>19</v>
+      </c>
+      <c r="X114" s="103">
+        <v>19</v>
+      </c>
+      <c r="Y114" s="100">
+        <v>14</v>
+      </c>
+      <c r="Z114" s="100">
+        <v>13</v>
+      </c>
+      <c r="AA114" s="100">
+        <v>19</v>
+      </c>
+      <c r="AB114" s="151">
+        <v>1570.5447196960399</v>
+      </c>
+      <c r="AC114" s="101">
+        <v>1034</v>
+      </c>
+      <c r="AD114" s="101">
+        <v>11922</v>
+      </c>
+      <c r="AE114" s="101">
+        <v>22043</v>
+      </c>
+      <c r="AF114" s="101">
+        <f t="shared" si="45"/>
+        <v>34999</v>
+      </c>
+      <c r="AG114" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH114" s="133" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="115" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="90">
@@ -19537,31 +19775,86 @@
       <c r="I115" s="133">
         <v>945074</v>
       </c>
-      <c r="J115" s="106"/>
-      <c r="K115" s="113"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="113"/>
-      <c r="N115" s="113"/>
-      <c r="O115" s="113"/>
-      <c r="P115" s="113"/>
-      <c r="Q115" s="113"/>
-      <c r="R115" s="113"/>
-      <c r="S115" s="113"/>
-      <c r="T115" s="101"/>
-      <c r="U115" s="101"/>
-      <c r="V115" s="101"/>
-      <c r="W115" s="102"/>
-      <c r="X115" s="103"/>
-      <c r="Y115" s="100"/>
-      <c r="Z115" s="100"/>
-      <c r="AA115" s="100"/>
-      <c r="AB115" s="114"/>
-      <c r="AC115" s="113"/>
-      <c r="AD115" s="113"/>
-      <c r="AE115" s="113"/>
-      <c r="AF115" s="113"/>
-      <c r="AG115" s="113"/>
-      <c r="AH115" s="115"/>
+      <c r="J115" s="157">
+        <v>55</v>
+      </c>
+      <c r="K115" s="142">
+        <v>65</v>
+      </c>
+      <c r="L115" s="142">
+        <v>75</v>
+      </c>
+      <c r="M115" s="150">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N115" s="150">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O115" s="150">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P115" s="101">
+        <v>1034</v>
+      </c>
+      <c r="Q115" s="101">
+        <v>429</v>
+      </c>
+      <c r="R115" s="101">
+        <v>128</v>
+      </c>
+      <c r="S115" s="101">
+        <f t="shared" si="44"/>
+        <v>1591</v>
+      </c>
+      <c r="T115" s="101">
+        <v>19</v>
+      </c>
+      <c r="U115" s="101">
+        <v>16</v>
+      </c>
+      <c r="V115" s="101">
+        <v>13</v>
+      </c>
+      <c r="W115" s="102">
+        <v>19</v>
+      </c>
+      <c r="X115" s="103">
+        <v>19</v>
+      </c>
+      <c r="Y115" s="100">
+        <v>14</v>
+      </c>
+      <c r="Z115" s="100">
+        <v>12</v>
+      </c>
+      <c r="AA115" s="100">
+        <v>19</v>
+      </c>
+      <c r="AB115" s="151">
+        <v>1311.7609024047799</v>
+      </c>
+      <c r="AC115" s="101">
+        <v>1034</v>
+      </c>
+      <c r="AD115" s="101">
+        <v>11922</v>
+      </c>
+      <c r="AE115" s="101">
+        <v>21466</v>
+      </c>
+      <c r="AF115" s="101">
+        <f t="shared" si="45"/>
+        <v>34422</v>
+      </c>
+      <c r="AG115" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH115" s="133" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="116" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="90">
@@ -19585,31 +19878,86 @@
       <c r="I116" s="133">
         <v>945074</v>
       </c>
-      <c r="J116" s="106"/>
-      <c r="K116" s="113"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="113"/>
-      <c r="N116" s="113"/>
-      <c r="O116" s="113"/>
-      <c r="P116" s="113"/>
-      <c r="Q116" s="113"/>
-      <c r="R116" s="113"/>
-      <c r="S116" s="113"/>
-      <c r="T116" s="101"/>
-      <c r="U116" s="101"/>
-      <c r="V116" s="101"/>
-      <c r="W116" s="102"/>
-      <c r="X116" s="103"/>
-      <c r="Y116" s="100"/>
-      <c r="Z116" s="100"/>
-      <c r="AA116" s="100"/>
-      <c r="AB116" s="114"/>
-      <c r="AC116" s="113"/>
-      <c r="AD116" s="113"/>
-      <c r="AE116" s="113"/>
-      <c r="AF116" s="113"/>
-      <c r="AG116" s="113"/>
-      <c r="AH116" s="115"/>
+      <c r="J116" s="157">
+        <v>55</v>
+      </c>
+      <c r="K116" s="142">
+        <v>65</v>
+      </c>
+      <c r="L116" s="142">
+        <v>75</v>
+      </c>
+      <c r="M116" s="150">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N116" s="150">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O116" s="150">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P116" s="101">
+        <v>1034</v>
+      </c>
+      <c r="Q116" s="101">
+        <v>429</v>
+      </c>
+      <c r="R116" s="101">
+        <v>128</v>
+      </c>
+      <c r="S116" s="101">
+        <f t="shared" si="44"/>
+        <v>1591</v>
+      </c>
+      <c r="T116" s="101">
+        <v>19</v>
+      </c>
+      <c r="U116" s="101">
+        <v>16</v>
+      </c>
+      <c r="V116" s="101">
+        <v>13</v>
+      </c>
+      <c r="W116" s="102">
+        <v>19</v>
+      </c>
+      <c r="X116" s="103">
+        <v>19</v>
+      </c>
+      <c r="Y116" s="100">
+        <v>14</v>
+      </c>
+      <c r="Z116" s="100">
+        <v>13</v>
+      </c>
+      <c r="AA116" s="100">
+        <v>19</v>
+      </c>
+      <c r="AB116" s="151">
+        <v>81419.565916061401</v>
+      </c>
+      <c r="AC116" s="101">
+        <v>1034</v>
+      </c>
+      <c r="AD116" s="101">
+        <v>11922</v>
+      </c>
+      <c r="AE116" s="101">
+        <v>22043</v>
+      </c>
+      <c r="AF116" s="101">
+        <f t="shared" si="45"/>
+        <v>34999</v>
+      </c>
+      <c r="AG116" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH116" s="133" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="117" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="82">
@@ -19633,31 +19981,86 @@
       <c r="I117" s="135">
         <v>882272</v>
       </c>
-      <c r="J117" s="88"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="56"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="56"/>
-      <c r="R117" s="56"/>
-      <c r="S117" s="56"/>
-      <c r="T117" s="55"/>
-      <c r="U117" s="55"/>
-      <c r="V117" s="55"/>
-      <c r="W117" s="75"/>
-      <c r="X117" s="79"/>
-      <c r="Y117" s="110"/>
-      <c r="Z117" s="110"/>
-      <c r="AA117" s="110"/>
-      <c r="AB117" s="72"/>
-      <c r="AC117" s="51"/>
-      <c r="AD117" s="51"/>
-      <c r="AE117" s="51"/>
-      <c r="AF117" s="51"/>
-      <c r="AG117" s="51"/>
-      <c r="AH117" s="52"/>
+      <c r="J117" s="128">
+        <v>55</v>
+      </c>
+      <c r="K117" s="62">
+        <v>65</v>
+      </c>
+      <c r="L117" s="62">
+        <v>75</v>
+      </c>
+      <c r="M117" s="118">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N117" s="118">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O117" s="118">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P117" s="55">
+        <v>58</v>
+      </c>
+      <c r="Q117" s="55">
+        <v>20</v>
+      </c>
+      <c r="R117" s="55">
+        <v>7</v>
+      </c>
+      <c r="S117" s="55">
+        <f>SUM(P117:R117)</f>
+        <v>85</v>
+      </c>
+      <c r="T117" s="55">
+        <v>25</v>
+      </c>
+      <c r="U117" s="55">
+        <v>18</v>
+      </c>
+      <c r="V117" s="55">
+        <v>9</v>
+      </c>
+      <c r="W117" s="75">
+        <v>25</v>
+      </c>
+      <c r="X117" s="79">
+        <v>25</v>
+      </c>
+      <c r="Y117" s="110">
+        <v>18</v>
+      </c>
+      <c r="Z117" s="110">
+        <v>9</v>
+      </c>
+      <c r="AA117" s="110">
+        <v>25</v>
+      </c>
+      <c r="AB117" s="160">
+        <v>0.99372863769531194</v>
+      </c>
+      <c r="AC117" s="43">
+        <v>58</v>
+      </c>
+      <c r="AD117" s="43">
+        <v>460</v>
+      </c>
+      <c r="AE117" s="43">
+        <v>1435</v>
+      </c>
+      <c r="AF117" s="43">
+        <f>SUM(AC117:AE117)</f>
+        <v>1953</v>
+      </c>
+      <c r="AG117" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH117" s="161" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="118" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="82">
@@ -19681,31 +20084,86 @@
       <c r="I118" s="135">
         <v>882272</v>
       </c>
-      <c r="J118" s="88"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="56"/>
-      <c r="R118" s="56"/>
-      <c r="S118" s="56"/>
-      <c r="T118" s="55"/>
-      <c r="U118" s="55"/>
-      <c r="V118" s="55"/>
-      <c r="W118" s="75"/>
-      <c r="X118" s="79"/>
-      <c r="Y118" s="110"/>
-      <c r="Z118" s="110"/>
-      <c r="AA118" s="110"/>
-      <c r="AB118" s="72"/>
-      <c r="AC118" s="51"/>
-      <c r="AD118" s="51"/>
-      <c r="AE118" s="51"/>
-      <c r="AF118" s="51"/>
-      <c r="AG118" s="51"/>
-      <c r="AH118" s="52"/>
+      <c r="J118" s="128">
+        <v>55</v>
+      </c>
+      <c r="K118" s="62">
+        <v>65</v>
+      </c>
+      <c r="L118" s="62">
+        <v>75</v>
+      </c>
+      <c r="M118" s="118">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N118" s="118">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O118" s="118">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P118" s="55">
+        <v>58</v>
+      </c>
+      <c r="Q118" s="55">
+        <v>20</v>
+      </c>
+      <c r="R118" s="55">
+        <v>7</v>
+      </c>
+      <c r="S118" s="55">
+        <f t="shared" ref="S118:S126" si="46">SUM(P118:R118)</f>
+        <v>85</v>
+      </c>
+      <c r="T118" s="55">
+        <v>25</v>
+      </c>
+      <c r="U118" s="55">
+        <v>18</v>
+      </c>
+      <c r="V118" s="55">
+        <v>9</v>
+      </c>
+      <c r="W118" s="75">
+        <v>25</v>
+      </c>
+      <c r="X118" s="79">
+        <v>25</v>
+      </c>
+      <c r="Y118" s="110">
+        <v>18</v>
+      </c>
+      <c r="Z118" s="110">
+        <v>9</v>
+      </c>
+      <c r="AA118" s="110">
+        <v>25</v>
+      </c>
+      <c r="AB118" s="160">
+        <v>1.5001296997070299</v>
+      </c>
+      <c r="AC118" s="43">
+        <v>58</v>
+      </c>
+      <c r="AD118" s="43">
+        <v>381</v>
+      </c>
+      <c r="AE118" s="43">
+        <v>764</v>
+      </c>
+      <c r="AF118" s="43">
+        <f t="shared" ref="AF118:AF122" si="47">SUM(AC118:AE118)</f>
+        <v>1203</v>
+      </c>
+      <c r="AG118" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH118" s="161" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="119" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="82">
@@ -19729,31 +20187,86 @@
       <c r="I119" s="135">
         <v>882272</v>
       </c>
-      <c r="J119" s="88"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="56"/>
-      <c r="O119" s="56"/>
-      <c r="P119" s="56"/>
-      <c r="Q119" s="56"/>
-      <c r="R119" s="56"/>
-      <c r="S119" s="56"/>
-      <c r="T119" s="55"/>
-      <c r="U119" s="55"/>
-      <c r="V119" s="55"/>
-      <c r="W119" s="75"/>
-      <c r="X119" s="79"/>
-      <c r="Y119" s="110"/>
-      <c r="Z119" s="110"/>
-      <c r="AA119" s="110"/>
-      <c r="AB119" s="72"/>
-      <c r="AC119" s="51"/>
-      <c r="AD119" s="51"/>
-      <c r="AE119" s="51"/>
-      <c r="AF119" s="51"/>
-      <c r="AG119" s="51"/>
-      <c r="AH119" s="52"/>
+      <c r="J119" s="128">
+        <v>55</v>
+      </c>
+      <c r="K119" s="62">
+        <v>65</v>
+      </c>
+      <c r="L119" s="62">
+        <v>75</v>
+      </c>
+      <c r="M119" s="118">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N119" s="118">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O119" s="118">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P119" s="55">
+        <v>58</v>
+      </c>
+      <c r="Q119" s="55">
+        <v>20</v>
+      </c>
+      <c r="R119" s="55">
+        <v>7</v>
+      </c>
+      <c r="S119" s="55">
+        <f t="shared" si="46"/>
+        <v>85</v>
+      </c>
+      <c r="T119" s="55">
+        <v>25</v>
+      </c>
+      <c r="U119" s="55">
+        <v>18</v>
+      </c>
+      <c r="V119" s="55">
+        <v>9</v>
+      </c>
+      <c r="W119" s="75">
+        <v>25</v>
+      </c>
+      <c r="X119" s="79">
+        <v>25</v>
+      </c>
+      <c r="Y119" s="110">
+        <v>18</v>
+      </c>
+      <c r="Z119" s="110">
+        <v>6</v>
+      </c>
+      <c r="AA119" s="110">
+        <v>25</v>
+      </c>
+      <c r="AB119" s="160">
+        <v>23.539543151855401</v>
+      </c>
+      <c r="AC119" s="43">
+        <v>58</v>
+      </c>
+      <c r="AD119" s="43">
+        <v>101</v>
+      </c>
+      <c r="AE119" s="43">
+        <v>32</v>
+      </c>
+      <c r="AF119" s="43">
+        <f t="shared" si="47"/>
+        <v>191</v>
+      </c>
+      <c r="AG119" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH119" s="161" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="120" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="82">
@@ -19777,31 +20290,86 @@
       <c r="I120" s="135">
         <v>882272</v>
       </c>
-      <c r="J120" s="88"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="56"/>
-      <c r="Q120" s="56"/>
-      <c r="R120" s="56"/>
-      <c r="S120" s="56"/>
-      <c r="T120" s="55"/>
-      <c r="U120" s="55"/>
-      <c r="V120" s="55"/>
-      <c r="W120" s="75"/>
-      <c r="X120" s="79"/>
-      <c r="Y120" s="110"/>
-      <c r="Z120" s="110"/>
-      <c r="AA120" s="110"/>
-      <c r="AB120" s="72"/>
-      <c r="AC120" s="51"/>
-      <c r="AD120" s="51"/>
-      <c r="AE120" s="51"/>
-      <c r="AF120" s="51"/>
-      <c r="AG120" s="51"/>
-      <c r="AH120" s="52"/>
+      <c r="J120" s="128">
+        <v>55</v>
+      </c>
+      <c r="K120" s="62">
+        <v>65</v>
+      </c>
+      <c r="L120" s="62">
+        <v>75</v>
+      </c>
+      <c r="M120" s="118">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N120" s="118">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O120" s="118">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P120" s="55">
+        <v>58</v>
+      </c>
+      <c r="Q120" s="55">
+        <v>20</v>
+      </c>
+      <c r="R120" s="55">
+        <v>7</v>
+      </c>
+      <c r="S120" s="55">
+        <f t="shared" si="46"/>
+        <v>85</v>
+      </c>
+      <c r="T120" s="55">
+        <v>25</v>
+      </c>
+      <c r="U120" s="55">
+        <v>18</v>
+      </c>
+      <c r="V120" s="55">
+        <v>9</v>
+      </c>
+      <c r="W120" s="75">
+        <v>25</v>
+      </c>
+      <c r="X120" s="79">
+        <v>25</v>
+      </c>
+      <c r="Y120" s="110">
+        <v>17</v>
+      </c>
+      <c r="Z120" s="110">
+        <v>5</v>
+      </c>
+      <c r="AA120" s="110">
+        <v>25</v>
+      </c>
+      <c r="AB120" s="160">
+        <v>22.521257400512599</v>
+      </c>
+      <c r="AC120" s="43">
+        <v>58</v>
+      </c>
+      <c r="AD120" s="43">
+        <v>81</v>
+      </c>
+      <c r="AE120" s="43">
+        <v>25</v>
+      </c>
+      <c r="AF120" s="43">
+        <f t="shared" si="47"/>
+        <v>164</v>
+      </c>
+      <c r="AG120" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH120" s="161" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="121" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="82">
@@ -19825,31 +20393,86 @@
       <c r="I121" s="135">
         <v>882272</v>
       </c>
-      <c r="J121" s="88"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="56"/>
-      <c r="Q121" s="56"/>
-      <c r="R121" s="56"/>
-      <c r="S121" s="56"/>
-      <c r="T121" s="55"/>
-      <c r="U121" s="55"/>
-      <c r="V121" s="55"/>
-      <c r="W121" s="75"/>
-      <c r="X121" s="79"/>
-      <c r="Y121" s="110"/>
-      <c r="Z121" s="110"/>
-      <c r="AA121" s="110"/>
-      <c r="AB121" s="72"/>
-      <c r="AC121" s="51"/>
-      <c r="AD121" s="51"/>
-      <c r="AE121" s="51"/>
-      <c r="AF121" s="51"/>
-      <c r="AG121" s="51"/>
-      <c r="AH121" s="52"/>
+      <c r="J121" s="128">
+        <v>55</v>
+      </c>
+      <c r="K121" s="62">
+        <v>65</v>
+      </c>
+      <c r="L121" s="62">
+        <v>75</v>
+      </c>
+      <c r="M121" s="118">
+        <f t="shared" si="41"/>
+        <v>550000</v>
+      </c>
+      <c r="N121" s="118">
+        <f t="shared" si="42"/>
+        <v>650000</v>
+      </c>
+      <c r="O121" s="118">
+        <f t="shared" si="43"/>
+        <v>750000</v>
+      </c>
+      <c r="P121" s="55">
+        <v>58</v>
+      </c>
+      <c r="Q121" s="55">
+        <v>20</v>
+      </c>
+      <c r="R121" s="55">
+        <v>7</v>
+      </c>
+      <c r="S121" s="55">
+        <f t="shared" si="46"/>
+        <v>85</v>
+      </c>
+      <c r="T121" s="55">
+        <v>25</v>
+      </c>
+      <c r="U121" s="55">
+        <v>18</v>
+      </c>
+      <c r="V121" s="55">
+        <v>9</v>
+      </c>
+      <c r="W121" s="75">
+        <v>25</v>
+      </c>
+      <c r="X121" s="79">
+        <v>25</v>
+      </c>
+      <c r="Y121" s="110">
+        <v>18</v>
+      </c>
+      <c r="Z121" s="110">
+        <v>6</v>
+      </c>
+      <c r="AA121" s="110">
+        <v>25</v>
+      </c>
+      <c r="AB121" s="160">
+        <v>917.44804382324196</v>
+      </c>
+      <c r="AC121" s="43">
+        <v>58</v>
+      </c>
+      <c r="AD121" s="43">
+        <v>101</v>
+      </c>
+      <c r="AE121" s="43">
+        <v>32</v>
+      </c>
+      <c r="AF121" s="43">
+        <f t="shared" si="47"/>
+        <v>191</v>
+      </c>
+      <c r="AG121" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH121" s="161" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="122" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="90">
@@ -19873,31 +20496,86 @@
       <c r="I122" s="134">
         <v>1006121</v>
       </c>
-      <c r="J122" s="106"/>
-      <c r="K122" s="113"/>
-      <c r="L122" s="113"/>
-      <c r="M122" s="113"/>
-      <c r="N122" s="113"/>
-      <c r="O122" s="113"/>
-      <c r="P122" s="113"/>
-      <c r="Q122" s="113"/>
-      <c r="R122" s="113"/>
-      <c r="S122" s="113"/>
-      <c r="T122" s="101"/>
-      <c r="U122" s="101"/>
-      <c r="V122" s="101"/>
-      <c r="W122" s="102"/>
-      <c r="X122" s="103"/>
-      <c r="Y122" s="100"/>
-      <c r="Z122" s="100"/>
-      <c r="AA122" s="100"/>
-      <c r="AB122" s="114"/>
-      <c r="AC122" s="113"/>
-      <c r="AD122" s="113"/>
-      <c r="AE122" s="113"/>
-      <c r="AF122" s="113"/>
-      <c r="AG122" s="113"/>
-      <c r="AH122" s="115"/>
+      <c r="J122" s="157">
+        <v>55</v>
+      </c>
+      <c r="K122" s="142">
+        <v>65</v>
+      </c>
+      <c r="L122" s="142">
+        <v>75</v>
+      </c>
+      <c r="M122" s="150">
+        <f>F122*(J122/100)</f>
+        <v>572000</v>
+      </c>
+      <c r="N122" s="150">
+        <f>F122*(K122/100)</f>
+        <v>676000</v>
+      </c>
+      <c r="O122" s="150">
+        <f>F122*(L122/100)</f>
+        <v>780000</v>
+      </c>
+      <c r="P122" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q122" s="101">
+        <v>3</v>
+      </c>
+      <c r="R122" s="101">
+        <v>1</v>
+      </c>
+      <c r="S122" s="101">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T122" s="101">
+        <v>4</v>
+      </c>
+      <c r="U122" s="101">
+        <v>3</v>
+      </c>
+      <c r="V122" s="101">
+        <v>2</v>
+      </c>
+      <c r="W122" s="102">
+        <v>4</v>
+      </c>
+      <c r="X122" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y122" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z122" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA122" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB122" s="151">
+        <v>0.52952766418456998</v>
+      </c>
+      <c r="AC122" s="101">
+        <v>2</v>
+      </c>
+      <c r="AD122" s="101">
+        <v>9</v>
+      </c>
+      <c r="AE122" s="101">
+        <v>9</v>
+      </c>
+      <c r="AF122" s="101">
+        <f>SUM(AC122:AE122)</f>
+        <v>20</v>
+      </c>
+      <c r="AG122" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH122" s="133" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="123" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="90">
@@ -19921,31 +20599,86 @@
       <c r="I123" s="134">
         <v>1006121</v>
       </c>
-      <c r="J123" s="106"/>
-      <c r="K123" s="113"/>
-      <c r="L123" s="113"/>
-      <c r="M123" s="113"/>
-      <c r="N123" s="113"/>
-      <c r="O123" s="113"/>
-      <c r="P123" s="113"/>
-      <c r="Q123" s="113"/>
-      <c r="R123" s="113"/>
-      <c r="S123" s="113"/>
-      <c r="T123" s="101"/>
-      <c r="U123" s="101"/>
-      <c r="V123" s="101"/>
-      <c r="W123" s="102"/>
-      <c r="X123" s="103"/>
-      <c r="Y123" s="100"/>
-      <c r="Z123" s="100"/>
-      <c r="AA123" s="100"/>
-      <c r="AB123" s="114"/>
-      <c r="AC123" s="113"/>
-      <c r="AD123" s="113"/>
-      <c r="AE123" s="113"/>
-      <c r="AF123" s="113"/>
-      <c r="AG123" s="113"/>
-      <c r="AH123" s="115"/>
+      <c r="J123" s="157">
+        <v>55</v>
+      </c>
+      <c r="K123" s="142">
+        <v>65</v>
+      </c>
+      <c r="L123" s="142">
+        <v>75</v>
+      </c>
+      <c r="M123" s="150">
+        <f t="shared" ref="M123:M126" si="48">F123*(J123/100)</f>
+        <v>572000</v>
+      </c>
+      <c r="N123" s="150">
+        <f t="shared" ref="N123:N126" si="49">F123*(K123/100)</f>
+        <v>676000</v>
+      </c>
+      <c r="O123" s="150">
+        <f t="shared" ref="O123:O126" si="50">F123*(L123/100)</f>
+        <v>780000</v>
+      </c>
+      <c r="P123" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="101">
+        <v>3</v>
+      </c>
+      <c r="R123" s="101">
+        <v>1</v>
+      </c>
+      <c r="S123" s="101">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T123" s="101">
+        <v>4</v>
+      </c>
+      <c r="U123" s="101">
+        <v>3</v>
+      </c>
+      <c r="V123" s="101">
+        <v>2</v>
+      </c>
+      <c r="W123" s="102">
+        <v>4</v>
+      </c>
+      <c r="X123" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y123" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z123" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA123" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB123" s="151">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="101">
+        <v>2</v>
+      </c>
+      <c r="AD123" s="101">
+        <v>5</v>
+      </c>
+      <c r="AE123" s="101">
+        <v>3</v>
+      </c>
+      <c r="AF123" s="101">
+        <f t="shared" ref="AF123:AF126" si="51">SUM(AC123:AE123)</f>
+        <v>10</v>
+      </c>
+      <c r="AG123" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH123" s="133" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="124" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="90">
@@ -19969,31 +20702,86 @@
       <c r="I124" s="134">
         <v>1006121</v>
       </c>
-      <c r="J124" s="106"/>
-      <c r="K124" s="113"/>
-      <c r="L124" s="113"/>
-      <c r="M124" s="113"/>
-      <c r="N124" s="113"/>
-      <c r="O124" s="113"/>
-      <c r="P124" s="113"/>
-      <c r="Q124" s="113"/>
-      <c r="R124" s="113"/>
-      <c r="S124" s="113"/>
-      <c r="T124" s="101"/>
-      <c r="U124" s="101"/>
-      <c r="V124" s="101"/>
-      <c r="W124" s="102"/>
-      <c r="X124" s="103"/>
-      <c r="Y124" s="100"/>
-      <c r="Z124" s="100"/>
-      <c r="AA124" s="100"/>
-      <c r="AB124" s="114"/>
-      <c r="AC124" s="113"/>
-      <c r="AD124" s="113"/>
-      <c r="AE124" s="113"/>
-      <c r="AF124" s="113"/>
-      <c r="AG124" s="113"/>
-      <c r="AH124" s="115"/>
+      <c r="J124" s="157">
+        <v>55</v>
+      </c>
+      <c r="K124" s="142">
+        <v>65</v>
+      </c>
+      <c r="L124" s="142">
+        <v>75</v>
+      </c>
+      <c r="M124" s="150">
+        <f t="shared" si="48"/>
+        <v>572000</v>
+      </c>
+      <c r="N124" s="150">
+        <f t="shared" si="49"/>
+        <v>676000</v>
+      </c>
+      <c r="O124" s="150">
+        <f t="shared" si="50"/>
+        <v>780000</v>
+      </c>
+      <c r="P124" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="101">
+        <v>3</v>
+      </c>
+      <c r="R124" s="101">
+        <v>1</v>
+      </c>
+      <c r="S124" s="101">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T124" s="101">
+        <v>4</v>
+      </c>
+      <c r="U124" s="101">
+        <v>3</v>
+      </c>
+      <c r="V124" s="101">
+        <v>2</v>
+      </c>
+      <c r="W124" s="102">
+        <v>4</v>
+      </c>
+      <c r="X124" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y124" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z124" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA124" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB124" s="151">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="101">
+        <v>2</v>
+      </c>
+      <c r="AD124" s="101">
+        <v>2</v>
+      </c>
+      <c r="AE124" s="101">
+        <v>2</v>
+      </c>
+      <c r="AF124" s="101">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="AG124" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH124" s="133" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="125" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="90">
@@ -20017,31 +20805,86 @@
       <c r="I125" s="134">
         <v>1006121</v>
       </c>
-      <c r="J125" s="106"/>
-      <c r="K125" s="113"/>
-      <c r="L125" s="113"/>
-      <c r="M125" s="113"/>
-      <c r="N125" s="113"/>
-      <c r="O125" s="113"/>
-      <c r="P125" s="113"/>
-      <c r="Q125" s="113"/>
-      <c r="R125" s="113"/>
-      <c r="S125" s="113"/>
-      <c r="T125" s="101"/>
-      <c r="U125" s="101"/>
-      <c r="V125" s="101"/>
-      <c r="W125" s="102"/>
-      <c r="X125" s="103"/>
-      <c r="Y125" s="100"/>
-      <c r="Z125" s="100"/>
-      <c r="AA125" s="100"/>
-      <c r="AB125" s="114"/>
-      <c r="AC125" s="113"/>
-      <c r="AD125" s="113"/>
-      <c r="AE125" s="113"/>
-      <c r="AF125" s="113"/>
-      <c r="AG125" s="113"/>
-      <c r="AH125" s="115"/>
+      <c r="J125" s="157">
+        <v>55</v>
+      </c>
+      <c r="K125" s="142">
+        <v>65</v>
+      </c>
+      <c r="L125" s="142">
+        <v>75</v>
+      </c>
+      <c r="M125" s="150">
+        <f t="shared" si="48"/>
+        <v>572000</v>
+      </c>
+      <c r="N125" s="150">
+        <f t="shared" si="49"/>
+        <v>676000</v>
+      </c>
+      <c r="O125" s="150">
+        <f t="shared" si="50"/>
+        <v>780000</v>
+      </c>
+      <c r="P125" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="101">
+        <v>3</v>
+      </c>
+      <c r="R125" s="101">
+        <v>1</v>
+      </c>
+      <c r="S125" s="101">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T125" s="101">
+        <v>4</v>
+      </c>
+      <c r="U125" s="101">
+        <v>3</v>
+      </c>
+      <c r="V125" s="101">
+        <v>2</v>
+      </c>
+      <c r="W125" s="102">
+        <v>4</v>
+      </c>
+      <c r="X125" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y125" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z125" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA125" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB125" s="151">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="101">
+        <v>2</v>
+      </c>
+      <c r="AD125" s="101">
+        <v>2</v>
+      </c>
+      <c r="AE125" s="101">
+        <v>2</v>
+      </c>
+      <c r="AF125" s="101">
+        <f t="shared" ref="AF125" si="52">SUM(AC125:AE125)</f>
+        <v>6</v>
+      </c>
+      <c r="AG125" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH125" s="133" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="126" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="90">
@@ -20065,31 +20908,86 @@
       <c r="I126" s="134">
         <v>1006121</v>
       </c>
-      <c r="J126" s="106"/>
-      <c r="K126" s="113"/>
-      <c r="L126" s="113"/>
-      <c r="M126" s="113"/>
-      <c r="N126" s="113"/>
-      <c r="O126" s="113"/>
-      <c r="P126" s="113"/>
-      <c r="Q126" s="113"/>
-      <c r="R126" s="113"/>
-      <c r="S126" s="113"/>
-      <c r="T126" s="101"/>
-      <c r="U126" s="101"/>
-      <c r="V126" s="101"/>
-      <c r="W126" s="102"/>
-      <c r="X126" s="103"/>
-      <c r="Y126" s="100"/>
-      <c r="Z126" s="100"/>
-      <c r="AA126" s="100"/>
-      <c r="AB126" s="114"/>
-      <c r="AC126" s="113"/>
-      <c r="AD126" s="113"/>
-      <c r="AE126" s="113"/>
-      <c r="AF126" s="113"/>
-      <c r="AG126" s="113"/>
-      <c r="AH126" s="115"/>
+      <c r="J126" s="157">
+        <v>55</v>
+      </c>
+      <c r="K126" s="142">
+        <v>65</v>
+      </c>
+      <c r="L126" s="142">
+        <v>75</v>
+      </c>
+      <c r="M126" s="150">
+        <f t="shared" si="48"/>
+        <v>572000</v>
+      </c>
+      <c r="N126" s="150">
+        <f t="shared" si="49"/>
+        <v>676000</v>
+      </c>
+      <c r="O126" s="150">
+        <f t="shared" si="50"/>
+        <v>780000</v>
+      </c>
+      <c r="P126" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q126" s="101">
+        <v>3</v>
+      </c>
+      <c r="R126" s="101">
+        <v>1</v>
+      </c>
+      <c r="S126" s="101">
+        <f t="shared" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="T126" s="101">
+        <v>4</v>
+      </c>
+      <c r="U126" s="101">
+        <v>3</v>
+      </c>
+      <c r="V126" s="101">
+        <v>2</v>
+      </c>
+      <c r="W126" s="102">
+        <v>4</v>
+      </c>
+      <c r="X126" s="103">
+        <v>4</v>
+      </c>
+      <c r="Y126" s="100">
+        <v>3</v>
+      </c>
+      <c r="Z126" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA126" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB126" s="151">
+        <v>0.50044059753417902</v>
+      </c>
+      <c r="AC126" s="101">
+        <v>2</v>
+      </c>
+      <c r="AD126" s="101">
+        <v>2</v>
+      </c>
+      <c r="AE126" s="101">
+        <v>2</v>
+      </c>
+      <c r="AF126" s="101">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="AG126" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH126" s="133" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="127" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="82">
@@ -20808,31 +21706,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="176" t="s">
+      <c r="T4" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="178"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="166"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
@@ -21142,31 +22040,31 @@
       </c>
     </row>
     <row r="4" spans="3:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="176" t="s">
+      <c r="T4" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="177"/>
-      <c r="V4" s="177"/>
-      <c r="W4" s="178"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="166"/>
     </row>
     <row r="5" spans="3:23" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
